--- a/InputData/elec/NGEpUO/Nonfuel GHG Emis per Unit Output.xlsx
+++ b/InputData/elec/NGEpUO/Nonfuel GHG Emis per Unit Output.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\US\Updated Input Data for v1.2.4\Files\Elec\NGEpUO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\NGEpUO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="15600" windowHeight="11310" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="15600" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="66">
   <si>
     <t>nuclear</t>
   </si>
@@ -148,9 +148,6 @@
     <t>Page S149, Table 2, Col "Harmonized by all", Seticon "Onshore", Row "Median"</t>
   </si>
   <si>
-    <t>Nonfuel GHG Emis / Unit Output (metric tons/MWh)</t>
-  </si>
-  <si>
     <t>natural gas nonpeaker</t>
   </si>
   <si>
@@ -197,6 +194,30 @@
   </si>
   <si>
     <t>Assumed to be the same as onshore wind, per http://www.nrel.gov/analysis/sustain_lca_wind.html</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Assumed to be the same as petroleum</t>
+  </si>
+  <si>
+    <t>Assumed to be the same as biomass</t>
+  </si>
+  <si>
+    <t>Nonfuel GHG Emis / Unit Output (metric tons CO2e/MWh)</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>This variable represents the embedded carbon emissions in power plant equipment and building materials. The data sources report emissions on a per unit output basis as part of lifecycle analyses.</t>
   </si>
 </sst>
 </file>
@@ -608,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +653,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -704,7 +725,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -911,7 +932,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1146,7 +1167,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -1178,7 +1199,7 @@
         <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1186,7 +1207,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1194,7 +1215,7 @@
         <v>7</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1202,7 +1223,7 @@
         <v>28</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1212,7 +1233,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -1227,7 +1248,7 @@
         <v>26</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1241,7 +1262,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -1256,7 +1277,7 @@
         <v>68.599999999999994</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1270,7 +1291,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -1285,7 +1306,7 @@
         <v>26</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1299,7 +1320,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -1314,7 +1335,7 @@
         <v>11</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1324,6 +1345,103 @@
       <c r="B87" s="2">
         <f>B33</f>
         <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92" s="2">
+        <f>B67</f>
+        <v>26</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B93" s="2">
+        <f>B68</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B98" s="2">
+        <f>B67</f>
+        <v>26</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B99" s="2">
+        <f>B68</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104" s="2">
+        <f>B53</f>
+        <v>46</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B105" s="2">
+        <f>B54</f>
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1347,26 +1465,26 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2">
         <f>About!B5</f>
@@ -1375,7 +1493,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <f>About!B12</f>
@@ -1402,7 +1520,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <f>About!B33</f>
@@ -1438,7 +1556,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="10">
         <f>About!B61</f>
@@ -1447,7 +1565,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <f>About!B68</f>
@@ -1456,7 +1574,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <f>About!B75</f>
@@ -1465,7 +1583,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <f>About!B81</f>
@@ -1474,11 +1592,38 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <f>About!B87</f>
         <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15">
+        <f>About!B93</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16">
+        <f>About!B99</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <f>About!B105</f>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
